--- a/ReturnsEng/Data/sinco_soc.xlsx
+++ b/ReturnsEng/Data/sinco_soc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar Galvez Soriano\Documents\Papers\ReturnsEng\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7172A9FB-A58F-4F57-93B1-C14392A8F80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7741834F-941B-49F7-B7C4-6CF914FA807C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9F56411D-DD6D-4634-B45B-D2326A5D34A1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="1042">
   <si>
     <t>sinco2011</t>
   </si>
@@ -3177,7 +3177,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3187,6 +3187,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3203,10 +3209,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3524,10 +3533,10 @@
   <dimension ref="A1:F469"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B435" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" sqref="A1:D469"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3659,6 +3668,12 @@
       <c r="B7" t="s">
         <v>14</v>
       </c>
+      <c r="C7" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -3667,8 +3682,12 @@
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="C8" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="E8" s="2">
         <v>1131</v>
       </c>
@@ -3683,8 +3702,12 @@
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="C9" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="E9" s="2">
         <v>1132</v>
       </c>
@@ -3699,6 +3722,12 @@
       <c r="B10" t="s">
         <v>17</v>
       </c>
+      <c r="C10" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -4685,7 +4714,8 @@
       <c r="B62" t="s">
         <v>111</v>
       </c>
-      <c r="D62" t="s">
+      <c r="C62" s="4"/>
+      <c r="D62" s="4" t="s">
         <v>112</v>
       </c>
     </row>
@@ -5793,8 +5823,12 @@
       <c r="B121" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
+      <c r="C121" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>256</v>
+      </c>
       <c r="E121" s="2">
         <v>2343</v>
       </c>
@@ -5809,9 +5843,11 @@
       <c r="B122" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="C122" s="2"/>
+      <c r="C122" s="2" t="s">
+        <v>235</v>
+      </c>
       <c r="D122" s="2" t="s">
-        <v>112</v>
+        <v>236</v>
       </c>
       <c r="E122" s="2">
         <v>2391</v>
@@ -6275,8 +6311,12 @@
       <c r="B146" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C146" s="2"/>
-      <c r="D146" s="2"/>
+      <c r="C146" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="E146" s="2">
         <v>2542</v>
       </c>
@@ -7533,8 +7573,11 @@
       <c r="B210" t="s">
         <v>478</v>
       </c>
-      <c r="D210" t="s">
-        <v>112</v>
+      <c r="C210" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="D210" s="4" t="s">
+        <v>477</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -7924,9 +7967,11 @@
       <c r="B230" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="C230" s="2"/>
+      <c r="C230" s="2" t="s">
+        <v>530</v>
+      </c>
       <c r="D230" s="2" t="s">
-        <v>112</v>
+        <v>531</v>
       </c>
       <c r="E230" s="2">
         <v>3232</v>
@@ -8786,8 +8831,12 @@
       <c r="B275" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="C275" s="2"/>
-      <c r="D275" s="2"/>
+      <c r="C275" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>637</v>
+      </c>
       <c r="E275" s="2">
         <v>5412</v>
       </c>
@@ -8936,8 +8985,12 @@
       <c r="B283" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="C283" s="2"/>
-      <c r="D283" s="2"/>
+      <c r="C283" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>648</v>
+      </c>
       <c r="E283" s="2">
         <v>6115</v>
       </c>
@@ -9112,8 +9165,12 @@
       <c r="B292" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="C292" s="2"/>
-      <c r="D292" s="2"/>
+      <c r="C292" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>648</v>
+      </c>
       <c r="E292" s="2">
         <v>6126</v>
       </c>
@@ -9268,9 +9325,11 @@
       <c r="B300" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="C300" s="2"/>
+      <c r="C300" s="2" t="s">
+        <v>672</v>
+      </c>
       <c r="D300" s="2" t="s">
-        <v>112</v>
+        <v>673</v>
       </c>
       <c r="E300" s="2">
         <v>6213</v>
@@ -9386,8 +9445,12 @@
       <c r="B306" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="C306" s="2"/>
-      <c r="D306" s="2"/>
+      <c r="C306" s="2" t="s">
+        <v>647</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>648</v>
+      </c>
       <c r="E306" s="2">
         <v>6226</v>
       </c>
@@ -9402,9 +9465,11 @@
       <c r="B307" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="C307" s="2"/>
+      <c r="C307" s="2" t="s">
+        <v>647</v>
+      </c>
       <c r="D307" s="2" t="s">
-        <v>112</v>
+        <v>648</v>
       </c>
       <c r="E307" s="2">
         <v>6227</v>
@@ -10362,9 +10427,11 @@
       <c r="B356" s="2" t="s">
         <v>797</v>
       </c>
-      <c r="C356" s="2"/>
+      <c r="C356" s="2" t="s">
+        <v>788</v>
+      </c>
       <c r="D356" s="2" t="s">
-        <v>112</v>
+        <v>795</v>
       </c>
       <c r="E356" s="2">
         <v>7516</v>
@@ -10474,9 +10541,11 @@
       <c r="B362" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="C362" s="2"/>
+      <c r="C362" s="2" t="s">
+        <v>751</v>
+      </c>
       <c r="D362" s="2" t="s">
-        <v>112</v>
+        <v>803</v>
       </c>
       <c r="E362" s="2">
         <v>7614</v>
@@ -11594,9 +11663,11 @@
       <c r="B419" s="2" t="s">
         <v>929</v>
       </c>
-      <c r="C419" s="2"/>
+      <c r="C419" s="2" t="s">
+        <v>647</v>
+      </c>
       <c r="D419" s="2" t="s">
-        <v>112</v>
+        <v>648</v>
       </c>
       <c r="E419" s="2">
         <v>9124</v>
@@ -11912,6 +11983,12 @@
       <c r="B435" t="s">
         <v>953</v>
       </c>
+      <c r="C435" s="5" t="s">
+        <v>951</v>
+      </c>
+      <c r="D435" s="4" t="s">
+        <v>952</v>
+      </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436">
@@ -11940,8 +12017,11 @@
       <c r="B437" t="s">
         <v>957</v>
       </c>
-      <c r="D437" t="s">
-        <v>112</v>
+      <c r="C437" s="5" t="s">
+        <v>955</v>
+      </c>
+      <c r="D437" s="4" t="s">
+        <v>956</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
@@ -12211,8 +12291,11 @@
       <c r="B451" t="s">
         <v>987</v>
       </c>
-      <c r="D451" t="s">
-        <v>112</v>
+      <c r="C451" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="D451" s="4" t="s">
+        <v>986</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
@@ -12516,8 +12599,11 @@
       <c r="B467" t="s">
         <v>1018</v>
       </c>
-      <c r="D467" t="s">
-        <v>112</v>
+      <c r="C467" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="D467" s="4" t="s">
+        <v>970</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
@@ -12527,9 +12613,11 @@
       <c r="B468" s="2" t="s">
         <v>1019</v>
       </c>
-      <c r="C468" s="2"/>
+      <c r="C468" s="2" t="s">
+        <v>976</v>
+      </c>
       <c r="D468" s="2" t="s">
-        <v>112</v>
+        <v>970</v>
       </c>
       <c r="E468" s="2">
         <v>9899</v>

--- a/ReturnsEng/Data/sinco_soc.xlsx
+++ b/ReturnsEng/Data/sinco_soc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar Galvez Soriano\Documents\Papers\ReturnsEng\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7741834F-941B-49F7-B7C4-6CF914FA807C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9A1D8B-0BEE-4E52-BDDF-5DA35D745061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9F56411D-DD6D-4634-B45B-D2326A5D34A1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1407" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="1042">
   <si>
     <t>sinco2011</t>
   </si>
@@ -3533,7 +3533,7 @@
   <dimension ref="A1:F469"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B435" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B436" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" sqref="A1:D469"/>
@@ -4714,9 +4714,11 @@
       <c r="B62" t="s">
         <v>111</v>
       </c>
-      <c r="C62" s="4"/>
+      <c r="C62" s="4" t="s">
+        <v>1034</v>
+      </c>
       <c r="D62" s="4" t="s">
-        <v>112</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -5732,8 +5734,11 @@
       <c r="B116" t="s">
         <v>248</v>
       </c>
-      <c r="D116" t="s">
-        <v>112</v>
+      <c r="C116" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">

--- a/ReturnsEng/Data/sinco_soc.xlsx
+++ b/ReturnsEng/Data/sinco_soc.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar Galvez Soriano\Documents\Papers\ReturnsEng\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9A1D8B-0BEE-4E52-BDDF-5DA35D745061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7A1B2F-1D61-456A-B64D-E25595851BEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9F56411D-DD6D-4634-B45B-D2326A5D34A1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sinco11_soc10" sheetId="1" r:id="rId1"/>
+    <sheet name="soc10_soc18" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1453" uniqueCount="1064">
   <si>
     <t>sinco2011</t>
   </si>
@@ -3162,6 +3163,72 @@
   </si>
   <si>
     <t>engl</t>
+  </si>
+  <si>
+    <t>soc_code10</t>
+  </si>
+  <si>
+    <t>soc_code18</t>
+  </si>
+  <si>
+    <t>soc_n10</t>
+  </si>
+  <si>
+    <t>soc_n18</t>
+  </si>
+  <si>
+    <t>Administrative Services Managers (#)</t>
+  </si>
+  <si>
+    <t>Administrative Services Managers</t>
+  </si>
+  <si>
+    <t>Funeral Service Managers</t>
+  </si>
+  <si>
+    <t>Funeral Home Managers</t>
+  </si>
+  <si>
+    <t>Animal Scientists</t>
+  </si>
+  <si>
+    <t>21-1021</t>
+  </si>
+  <si>
+    <t>Child, Family, and School Social Workers</t>
+  </si>
+  <si>
+    <t>Craft Artists</t>
+  </si>
+  <si>
+    <t>27-3041</t>
+  </si>
+  <si>
+    <t>Editors</t>
+  </si>
+  <si>
+    <t>35-3023</t>
+  </si>
+  <si>
+    <t>Counter Attendants, Cafeteria, Food Concession, and Coffee Shop</t>
+  </si>
+  <si>
+    <t>Fast Food and Counter Workers (##)</t>
+  </si>
+  <si>
+    <t>Agricultural Workers, All Other</t>
+  </si>
+  <si>
+    <t>49-9098</t>
+  </si>
+  <si>
+    <t>Helpers--Installation, Maintenance, and Repair Workers</t>
+  </si>
+  <si>
+    <t>51-9198</t>
+  </si>
+  <si>
+    <t>Helpers--Production Workers</t>
   </si>
 </sst>
 </file>
@@ -3209,13 +3276,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3536,7 +3604,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B436" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:D469"/>
+      <selection pane="bottomRight" activeCell="B460" sqref="B460"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12652,4 +12720,176 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC31A94-CA63-4E85-A974-3D61663976A7}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>771</v>
+      </c>
+      <c r="B6" t="s">
+        <v>801</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>580</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>689</v>
+      </c>
+      <c r="B9" t="s">
+        <v>647</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>402</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>751</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>